--- a/backend/config/rate_card.xlsx
+++ b/backend/config/rate_card.xlsx
@@ -19,74 +19,77 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
-  <si>
-    <t>NSE_TurnOver</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>BOTH</t>
-  </si>
-  <si>
-    <t>Fut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charges Fut </t>
-  </si>
-  <si>
-    <t>Opt (P)</t>
-  </si>
-  <si>
-    <t>Asg / ex. (P)</t>
-  </si>
-  <si>
-    <t>GST/18%</t>
-  </si>
-  <si>
-    <t>B/S</t>
-  </si>
-  <si>
-    <t>BSE_TurnOver</t>
-  </si>
-  <si>
-    <t>NSE_StampDuty</t>
-  </si>
-  <si>
-    <t>BSE_StampDuty</t>
-  </si>
-  <si>
-    <t>NSE_Clearing</t>
-  </si>
-  <si>
-    <t>BSE_Clearing</t>
-  </si>
-  <si>
-    <t>NSE_SEBIFEES</t>
-  </si>
-  <si>
-    <t>BSE_SEBIFEES</t>
-  </si>
-  <si>
-    <t>NSE_STT</t>
-  </si>
-  <si>
-    <t>BSE_STT</t>
-  </si>
-  <si>
-    <t>0.125 (EXE)</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>BUY</t>
-  </si>
-  <si>
-    <t>SELL</t>
-  </si>
-</sst>
+<ns0:sst xmlns:ns0="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+  <ns0:si>
+    <ns0:t>NSE_TurnOver</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>YES</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>BOTH</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Fut</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Charges Fut </ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Opt (P)</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>Asg / ex. (P)</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>GST/18%</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>B/S</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>BSE_TurnOver</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>NSE_StampDuty</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>BSE_StampDuty</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>NSE_Clearing</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>BSE_Clearing</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>NSE_SEBIFEES</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>BSE_SEBIFEES</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>NSE_STT</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>BSE_STT</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>0.15 (EXE)</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>NO</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>BUY</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>SELL</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t>IPFT</ns0:t>
+  </ns0:si>
+</ns0:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -583,13 +586,13 @@
         <ns0:v>0</ns0:v>
       </ns0:c>
       <ns0:c r="B2" s="1">
-        <ns0:v>0.0505</ns0:v>
+        <ns0:v>0.0025</ns0:v>
       </ns0:c>
       <ns0:c r="C2" s="1">
-        <ns0:v>0.0505</ns0:v>
+        <ns0:v>0.0605</ns0:v>
       </ns0:c>
       <ns0:c r="D2" s="1">
-        <ns0:v>5.5500000000000001E-2</ns0:v>
+        <ns0:v>0.0605</ns0:v>
       </ns0:c>
       <ns0:c r="E2" s="1" t="s">
         <ns0:v>1</ns0:v>
@@ -603,13 +606,13 @@
         <ns0:v>9</ns0:v>
       </ns0:c>
       <ns0:c r="B3" s="1">
-        <ns0:v>0.0495</ns0:v>
+        <ns0:v>0.0025</ns0:v>
       </ns0:c>
       <ns0:c r="C3" s="1">
-        <ns0:v>0.0495</ns0:v>
+        <ns0:v>0.0595</ns0:v>
       </ns0:c>
       <ns0:c r="D3" s="1">
-        <ns0:v>5.45E-2</ns0:v>
+        <ns0:v>0.0595</ns0:v>
       </ns0:c>
       <ns0:c r="E3" s="1" t="s">
         <ns0:v>1</ns0:v>
@@ -623,13 +626,13 @@
         <ns0:v>10</ns0:v>
       </ns0:c>
       <ns0:c r="B4" s="1">
-        <ns0:v>2E-3</ns0:v>
+        <ns0:v>0.002</ns0:v>
       </ns0:c>
       <ns0:c r="C4" s="1">
-        <ns0:v>3.0000000000000001E-3</ns0:v>
+        <ns0:v>0.003</ns0:v>
       </ns0:c>
       <ns0:c r="D4" s="1">
-        <ns0:v>3.0000000000000001E-3</ns0:v>
+        <ns0:v>0.003</ns0:v>
       </ns0:c>
       <ns0:c r="E4" s="1" t="s">
         <ns0:v>19</ns0:v>
@@ -643,13 +646,13 @@
         <ns0:v>11</ns0:v>
       </ns0:c>
       <ns0:c r="B5" s="1">
-        <ns0:v>2E-3</ns0:v>
+        <ns0:v>0.002</ns0:v>
       </ns0:c>
       <ns0:c r="C5" s="1">
-        <ns0:v>3.0000000000000001E-3</ns0:v>
+        <ns0:v>0.003</ns0:v>
       </ns0:c>
       <ns0:c r="D5" s="1">
-        <ns0:v>3.0000000000000001E-3</ns0:v>
+        <ns0:v>0.003</ns0:v>
       </ns0:c>
       <ns0:c r="E5" s="1" t="s">
         <ns0:v>19</ns0:v>
@@ -663,13 +666,13 @@
         <ns0:v>12</ns0:v>
       </ns0:c>
       <ns0:c r="B6" s="1">
-        <ns0:v>4.4999999999999999E-4</ns0:v>
+        <ns0:v>0.00045</ns0:v>
       </ns0:c>
       <ns0:c r="C6" s="1">
-        <ns0:v>3.0000000000000001E-3</ns0:v>
+        <ns0:v>0.003</ns0:v>
       </ns0:c>
       <ns0:c r="D6" s="1">
-        <ns0:v>3.0000000000000001E-3</ns0:v>
+        <ns0:v>0.003</ns0:v>
       </ns0:c>
       <ns0:c r="E6" s="1" t="s">
         <ns0:v>1</ns0:v>
@@ -683,13 +686,13 @@
         <ns0:v>13</ns0:v>
       </ns0:c>
       <ns0:c r="B7" s="1">
-        <ns0:v>4.4999999999999999E-4</ns0:v>
+        <ns0:v>0.00045</ns0:v>
       </ns0:c>
       <ns0:c r="C7" s="1">
-        <ns0:v>3.0000000000000001E-3</ns0:v>
+        <ns0:v>0.003</ns0:v>
       </ns0:c>
       <ns0:c r="D7" s="1">
-        <ns0:v>3.0000000000000001E-3</ns0:v>
+        <ns0:v>0.003</ns0:v>
       </ns0:c>
       <ns0:c r="E7" s="1" t="s">
         <ns0:v>1</ns0:v>
@@ -703,13 +706,13 @@
         <ns0:v>14</ns0:v>
       </ns0:c>
       <ns0:c r="B8" s="1">
-        <ns0:v>1.4999999999999999E-4</ns0:v>
+        <ns0:v>0.00015</ns0:v>
       </ns0:c>
       <ns0:c r="C8" s="1">
-        <ns0:v>1.4999999999999999E-4</ns0:v>
+        <ns0:v>0.00015</ns0:v>
       </ns0:c>
       <ns0:c r="D8" s="1">
-        <ns0:v>1.4999999999999999E-4</ns0:v>
+        <ns0:v>0.00015</ns0:v>
       </ns0:c>
       <ns0:c r="E8" s="1" t="s">
         <ns0:v>1</ns0:v>
@@ -723,13 +726,13 @@
         <ns0:v>15</ns0:v>
       </ns0:c>
       <ns0:c r="B9" s="1">
-        <ns0:v>1.4999999999999999E-4</ns0:v>
+        <ns0:v>0.00015</ns0:v>
       </ns0:c>
       <ns0:c r="C9" s="1">
-        <ns0:v>1.4999999999999999E-4</ns0:v>
+        <ns0:v>0.00015</ns0:v>
       </ns0:c>
       <ns0:c r="D9" s="1">
-        <ns0:v>1.4999999999999999E-4</ns0:v>
+        <ns0:v>0.00015</ns0:v>
       </ns0:c>
       <ns0:c r="E9" s="1" t="s">
         <ns0:v>1</ns0:v>
@@ -743,10 +746,10 @@
         <ns0:v>16</ns0:v>
       </ns0:c>
       <ns0:c r="B10" s="1">
-        <ns0:v>0.02</ns0:v>
+        <ns0:v>0.05</ns0:v>
       </ns0:c>
       <ns0:c r="C10" s="1">
-        <ns0:v>0.1</ns0:v>
+        <ns0:v>0.15</ns0:v>
       </ns0:c>
       <ns0:c r="D10" s="1" t="s">
         <ns0:v>18</ns0:v>
@@ -763,10 +766,10 @@
         <ns0:v>17</ns0:v>
       </ns0:c>
       <ns0:c r="B11" s="1">
-        <ns0:v>0.02</ns0:v>
+        <ns0:v>0.05</ns0:v>
       </ns0:c>
       <ns0:c r="C11" s="1">
-        <ns0:v>0.1</ns0:v>
+        <ns0:v>0.15</ns0:v>
       </ns0:c>
       <ns0:c r="D11" s="1" t="s">
         <ns0:v>18</ns0:v>
@@ -779,12 +782,24 @@
       </ns0:c>
     </ns0:row>
     <ns0:row r="12" spans="1:6" ht="15.75" thickBot="1" ns2:dyDescent="0.3">
-      <ns0:c r="A12" s="7"/>
-      <ns0:c r="B12" s="8"/>
-      <ns0:c r="C12" s="8"/>
-      <ns0:c r="D12" s="8"/>
-      <ns0:c r="E12" s="8"/>
-      <ns0:c r="F12" s="9"/>
+      <ns0:c r="A12" s="7" t="s">
+        <ns0:v>22</ns0:v>
+      </ns0:c>
+      <ns0:c r="B12" s="8">
+        <ns0:v>5e-06</ns0:v>
+      </ns0:c>
+      <ns0:c r="C12" s="8">
+        <ns0:v>5e-06</ns0:v>
+      </ns0:c>
+      <ns0:c r="D12" s="8">
+        <ns0:v>5e-06</ns0:v>
+      </ns0:c>
+      <ns0:c r="E12" s="8" t="s">
+        <ns0:v>1</ns0:v>
+      </ns0:c>
+      <ns0:c r="F12" s="9" t="s">
+        <ns0:v>2</ns0:v>
+      </ns0:c>
     </ns0:row>
   </ns0:sheetData>
   <ns0:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backend/config/rate_card.xlsx
+++ b/backend/config/rate_card.xlsx
@@ -1,111 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<ns0:sst xmlns:ns0="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
-  <ns0:si>
-    <ns0:t>NSE_TurnOver</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t>YES</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t>BOTH</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t>Fut</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t>Charges Fut </ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t>Opt (P)</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t>Asg / ex. (P)</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t>GST/18%</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t>B/S</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t>BSE_TurnOver</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t>NSE_StampDuty</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t>BSE_StampDuty</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t>NSE_Clearing</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t>BSE_Clearing</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t>NSE_SEBIFEES</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t>BSE_SEBIFEES</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t>NSE_STT</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t>BSE_STT</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t>0.15 (EXE)</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t>NO</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t>BUY</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t>SELL</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t>IPFT</ns0:t>
-  </ns0:si>
-</ns0:sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -259,30 +181,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -548,260 +529,352 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<ns0:worksheet xmlns:ns0="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ns1="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:ns2="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" ns1:Ignorable="x14ac">
-  <ns0:dimension ref="A1:F12"/>
-  <ns0:sheetViews>
-    <ns0:sheetView tabSelected="1" workbookViewId="0">
-      <ns0:selection activeCell="F20" sqref="F20"/>
-    </ns0:sheetView>
-  </ns0:sheetViews>
-  <ns0:sheetFormatPr defaultRowHeight="15" ns2:dyDescent="0.25"/>
-  <ns0:cols>
-    <ns0:col min="1" max="1" width="60.5703125" customWidth="1"/>
-    <ns0:col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-  </ns0:cols>
-  <ns0:sheetData>
-    <ns0:row r="1" spans="1:6" ns2:dyDescent="0.25">
-      <ns0:c r="A1" s="2" t="s">
-        <ns0:v>4</ns0:v>
-      </ns0:c>
-      <ns0:c r="B1" s="3" t="s">
-        <ns0:v>3</ns0:v>
-      </ns0:c>
-      <ns0:c r="C1" s="3" t="s">
-        <ns0:v>5</ns0:v>
-      </ns0:c>
-      <ns0:c r="D1" s="3" t="s">
-        <ns0:v>6</ns0:v>
-      </ns0:c>
-      <ns0:c r="E1" s="3" t="s">
-        <ns0:v>7</ns0:v>
-      </ns0:c>
-      <ns0:c r="F1" s="4" t="s">
-        <ns0:v>8</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="2" spans="1:6" ns2:dyDescent="0.25">
-      <ns0:c r="A2" s="5" t="s">
-        <ns0:v>0</ns0:v>
-      </ns0:c>
-      <ns0:c r="B2" s="1">
-        <ns0:v>0.0025</ns0:v>
-      </ns0:c>
-      <ns0:c r="C2" s="1">
-        <ns0:v>0.0605</ns0:v>
-      </ns0:c>
-      <ns0:c r="D2" s="1">
-        <ns0:v>0.0605</ns0:v>
-      </ns0:c>
-      <ns0:c r="E2" s="1" t="s">
-        <ns0:v>1</ns0:v>
-      </ns0:c>
-      <ns0:c r="F2" s="6" t="s">
-        <ns0:v>2</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="3" spans="1:6" ns2:dyDescent="0.25">
-      <ns0:c r="A3" s="5" t="s">
-        <ns0:v>9</ns0:v>
-      </ns0:c>
-      <ns0:c r="B3" s="1">
-        <ns0:v>0.0025</ns0:v>
-      </ns0:c>
-      <ns0:c r="C3" s="1">
-        <ns0:v>0.0595</ns0:v>
-      </ns0:c>
-      <ns0:c r="D3" s="1">
-        <ns0:v>0.0595</ns0:v>
-      </ns0:c>
-      <ns0:c r="E3" s="1" t="s">
-        <ns0:v>1</ns0:v>
-      </ns0:c>
-      <ns0:c r="F3" s="6" t="s">
-        <ns0:v>2</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="4" spans="1:6" ns2:dyDescent="0.25">
-      <ns0:c r="A4" s="5" t="s">
-        <ns0:v>10</ns0:v>
-      </ns0:c>
-      <ns0:c r="B4" s="1">
-        <ns0:v>0.002</ns0:v>
-      </ns0:c>
-      <ns0:c r="C4" s="1">
-        <ns0:v>0.003</ns0:v>
-      </ns0:c>
-      <ns0:c r="D4" s="1">
-        <ns0:v>0.003</ns0:v>
-      </ns0:c>
-      <ns0:c r="E4" s="1" t="s">
-        <ns0:v>19</ns0:v>
-      </ns0:c>
-      <ns0:c r="F4" s="6" t="s">
-        <ns0:v>20</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="5" spans="1:6" ns2:dyDescent="0.25">
-      <ns0:c r="A5" s="5" t="s">
-        <ns0:v>11</ns0:v>
-      </ns0:c>
-      <ns0:c r="B5" s="1">
-        <ns0:v>0.002</ns0:v>
-      </ns0:c>
-      <ns0:c r="C5" s="1">
-        <ns0:v>0.003</ns0:v>
-      </ns0:c>
-      <ns0:c r="D5" s="1">
-        <ns0:v>0.003</ns0:v>
-      </ns0:c>
-      <ns0:c r="E5" s="1" t="s">
-        <ns0:v>19</ns0:v>
-      </ns0:c>
-      <ns0:c r="F5" s="6" t="s">
-        <ns0:v>20</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="6" spans="1:6" ns2:dyDescent="0.25">
-      <ns0:c r="A6" s="5" t="s">
-        <ns0:v>12</ns0:v>
-      </ns0:c>
-      <ns0:c r="B6" s="1">
-        <ns0:v>0.00045</ns0:v>
-      </ns0:c>
-      <ns0:c r="C6" s="1">
-        <ns0:v>0.003</ns0:v>
-      </ns0:c>
-      <ns0:c r="D6" s="1">
-        <ns0:v>0.003</ns0:v>
-      </ns0:c>
-      <ns0:c r="E6" s="1" t="s">
-        <ns0:v>1</ns0:v>
-      </ns0:c>
-      <ns0:c r="F6" s="6" t="s">
-        <ns0:v>2</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="7" spans="1:6" ns2:dyDescent="0.25">
-      <ns0:c r="A7" s="5" t="s">
-        <ns0:v>13</ns0:v>
-      </ns0:c>
-      <ns0:c r="B7" s="1">
-        <ns0:v>0.00045</ns0:v>
-      </ns0:c>
-      <ns0:c r="C7" s="1">
-        <ns0:v>0.003</ns0:v>
-      </ns0:c>
-      <ns0:c r="D7" s="1">
-        <ns0:v>0.003</ns0:v>
-      </ns0:c>
-      <ns0:c r="E7" s="1" t="s">
-        <ns0:v>1</ns0:v>
-      </ns0:c>
-      <ns0:c r="F7" s="6" t="s">
-        <ns0:v>2</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="8" spans="1:6" ns2:dyDescent="0.25">
-      <ns0:c r="A8" s="5" t="s">
-        <ns0:v>14</ns0:v>
-      </ns0:c>
-      <ns0:c r="B8" s="1">
-        <ns0:v>0.00015</ns0:v>
-      </ns0:c>
-      <ns0:c r="C8" s="1">
-        <ns0:v>0.00015</ns0:v>
-      </ns0:c>
-      <ns0:c r="D8" s="1">
-        <ns0:v>0.00015</ns0:v>
-      </ns0:c>
-      <ns0:c r="E8" s="1" t="s">
-        <ns0:v>1</ns0:v>
-      </ns0:c>
-      <ns0:c r="F8" s="6" t="s">
-        <ns0:v>2</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="9" spans="1:6" ns2:dyDescent="0.25">
-      <ns0:c r="A9" s="5" t="s">
-        <ns0:v>15</ns0:v>
-      </ns0:c>
-      <ns0:c r="B9" s="1">
-        <ns0:v>0.00015</ns0:v>
-      </ns0:c>
-      <ns0:c r="C9" s="1">
-        <ns0:v>0.00015</ns0:v>
-      </ns0:c>
-      <ns0:c r="D9" s="1">
-        <ns0:v>0.00015</ns0:v>
-      </ns0:c>
-      <ns0:c r="E9" s="1" t="s">
-        <ns0:v>1</ns0:v>
-      </ns0:c>
-      <ns0:c r="F9" s="6" t="s">
-        <ns0:v>2</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="10" spans="1:6" ns2:dyDescent="0.25">
-      <ns0:c r="A10" s="5" t="s">
-        <ns0:v>16</ns0:v>
-      </ns0:c>
-      <ns0:c r="B10" s="1">
-        <ns0:v>0.05</ns0:v>
-      </ns0:c>
-      <ns0:c r="C10" s="1">
-        <ns0:v>0.15</ns0:v>
-      </ns0:c>
-      <ns0:c r="D10" s="1" t="s">
-        <ns0:v>18</ns0:v>
-      </ns0:c>
-      <ns0:c r="E10" s="1" t="s">
-        <ns0:v>19</ns0:v>
-      </ns0:c>
-      <ns0:c r="F10" s="6" t="s">
-        <ns0:v>21</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="11" spans="1:6" ns2:dyDescent="0.25">
-      <ns0:c r="A11" s="5" t="s">
-        <ns0:v>17</ns0:v>
-      </ns0:c>
-      <ns0:c r="B11" s="1">
-        <ns0:v>0.05</ns0:v>
-      </ns0:c>
-      <ns0:c r="C11" s="1">
-        <ns0:v>0.15</ns0:v>
-      </ns0:c>
-      <ns0:c r="D11" s="1" t="s">
-        <ns0:v>18</ns0:v>
-      </ns0:c>
-      <ns0:c r="E11" s="1" t="s">
-        <ns0:v>19</ns0:v>
-      </ns0:c>
-      <ns0:c r="F11" s="6" t="s">
-        <ns0:v>21</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="12" spans="1:6" ht="15.75" thickBot="1" ns2:dyDescent="0.3">
-      <ns0:c r="A12" s="7" t="s">
-        <ns0:v>22</ns0:v>
-      </ns0:c>
-      <ns0:c r="B12" s="8">
-        <ns0:v>5e-06</ns0:v>
-      </ns0:c>
-      <ns0:c r="C12" s="8">
-        <ns0:v>5e-06</ns0:v>
-      </ns0:c>
-      <ns0:c r="D12" s="8">
-        <ns0:v>5e-06</ns0:v>
-      </ns0:c>
-      <ns0:c r="E12" s="8" t="s">
-        <ns0:v>1</ns0:v>
-      </ns0:c>
-      <ns0:c r="F12" s="9" t="s">
-        <ns0:v>2</ns0:v>
-      </ns0:c>
-    </ns0:row>
-  </ns0:sheetData>
-  <ns0:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</ns0:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="60.5703125" customWidth="1" min="1" max="1"/>
+    <col width="11.5703125" bestFit="1" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Charges Fut</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Fut</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Opt (P)</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Asg / ex. (P)</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>GST/18%</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>B/S</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>NSE_TurnOver</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0.0605</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0.0605</v>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>BOTH</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>BSE_TurnOver</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0.0595</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0.0595</v>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>BOTH</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>NSE_StampDuty</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>BSE_StampDuty</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>NSE_Clearing</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0.00045</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>BOTH</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>BSE_Clearing</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0.00045</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="inlineStr">
+        <is>
+          <t>BOTH</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>NSE_SEBIFEES</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>0.00015</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0.00015</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0.00015</v>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>BOTH</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>BSE_SEBIFEES</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>0.00015</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0.00015</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0.00015</v>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="inlineStr">
+        <is>
+          <t>BOTH</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>NSE_STT</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>0.125 (EXE)</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="F10" s="6" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>BSE_STT</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>0.125 (EXE)</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="F11" s="6" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>IPFT</t>
+        </is>
+      </c>
+      <c r="B12" s="8" t="inlineStr">
+        <is>
+          <t>5e-06</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>5e-06</t>
+        </is>
+      </c>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>5e-06</t>
+        </is>
+      </c>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>BOTH</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>